--- a/sentiment_comparison_reports.xlsx
+++ b/sentiment_comparison_reports.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,105 +444,95 @@
           <t>Average Stars</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>CSRD Terms</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CSRD Reprasentative Words</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>elis_registrationDocument_2015.pdf</t>
+          <t>elis_registrationDocument_2020.pdf</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.58</v>
+        <v>3.74</v>
+      </c>
+      <c r="C2" t="n">
+        <v>92</v>
+      </c>
+      <c r="D2" t="n">
+        <v>433</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>elis_registrationDocument_2016.pdf</t>
+          <t>elis_registrationDocument_2021.pdf</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.64</v>
+        <v>3.79</v>
+      </c>
+      <c r="C3" t="n">
+        <v>285</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>elis_registrationDocument_2017.pdf</t>
+          <t>elis_registrationDocument_2022.pdf</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.57</v>
+        <v>3.63</v>
+      </c>
+      <c r="C4" t="n">
+        <v>351</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1432</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>elis_registrationDocument_2018.pdf</t>
+          <t>elis_registrationDocument_2023.pdf</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.51</v>
+        <v>3.57</v>
+      </c>
+      <c r="C5" t="n">
+        <v>427</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1647</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>elis_registrationDocument_2019.pdf</t>
+          <t>elis_registrationDocument_2024.pdf</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.44</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>elis_registrationDocument_2020.pdf</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3.74</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>elis_registrationDocument_2021.pdf</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3.79</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>elis_registrationDocument_2022.pdf</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>elis_registrationDocument_2023.pdf</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3.57</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>elis_registrationDocument_2024.pdf</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
         <v>3.37</v>
+      </c>
+      <c r="C6" t="n">
+        <v>252</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1373</v>
       </c>
     </row>
   </sheetData>

--- a/sentiment_comparison_reports.xlsx
+++ b/sentiment_comparison_reports.xlsx
@@ -446,12 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CSRD Terms</t>
+          <t>CSRD Seeds</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CSRD Reprasentative Words</t>
+          <t>CSRD Reprasentative Terms</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.74</v>
+        <v>3.66</v>
       </c>
       <c r="C2" t="n">
         <v>92</v>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.79</v>
+        <v>3.81</v>
       </c>
       <c r="C3" t="n">
         <v>285</v>
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.63</v>
+        <v>3.85</v>
       </c>
       <c r="C4" t="n">
         <v>351</v>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.57</v>
+        <v>3.71</v>
       </c>
       <c r="C5" t="n">
         <v>427</v>
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.37</v>
+        <v>3.55</v>
       </c>
       <c r="C6" t="n">
         <v>252</v>
